--- a/БЖД/Практические/Практическая 4.xlsx
+++ b/БЖД/Практические/Практическая 4.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
-    <sheet name="Химически опасные вещества" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>17-26 стр</t>
   </si>
@@ -34,13 +34,133 @@
   </si>
   <si>
     <t>лекция</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>Соляная кислота</t>
+  </si>
+  <si>
+    <t>Хлор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аммиак </t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>под давлением газ, сжиженный</t>
+  </si>
+  <si>
+    <t>сжатый газ</t>
+  </si>
+  <si>
+    <t>жидкость</t>
+  </si>
+  <si>
+    <t>Емкость</t>
+  </si>
+  <si>
+    <t>без обваловки</t>
+  </si>
+  <si>
+    <t>Вариант</t>
+  </si>
+  <si>
+    <t>инверсия</t>
+  </si>
+  <si>
+    <t>метеорологические условия</t>
+  </si>
+  <si>
+    <t>V ветра м/c</t>
+  </si>
+  <si>
+    <t>Расстояние v</t>
+  </si>
+  <si>
+    <t>m т</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>N время c</t>
+  </si>
+  <si>
+    <t>T^0.8</t>
+  </si>
+  <si>
+    <t>N^0.8</t>
+  </si>
+  <si>
+    <t>T c, поражающего действия</t>
+  </si>
+  <si>
+    <t>для Qэ</t>
+  </si>
+  <si>
+    <t>тонн</t>
+  </si>
+  <si>
+    <t>эквив содержание СДЯВ</t>
+  </si>
+  <si>
+    <t>Гз зоны заражения км</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Гпр глубина переноса воздушных масс</t>
+  </si>
+  <si>
+    <t>S возможного заражения км</t>
+  </si>
+  <si>
+    <t>S фактического заражения</t>
+  </si>
+  <si>
+    <t>kв</t>
+  </si>
+  <si>
+    <t>t ч время подхода зараженного воздуха к городу</t>
+  </si>
+  <si>
+    <t>Qэ т общее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Так как при  авариии на ХОО через 1 часс после начала аварии масштаб заражения характеризиуется глубиной Г=20 км и фактической площадью заражения S=365 кв. км. И при этом время действия источника заражения примем по максимальноему T=1&lt;15 То мероприятия по защите рекомендуются следующие: 1) оповестить население 2) укрыть население в защитных сооружениях 3) провести ликвидацию последствий аварии </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +169,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,11 +209,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -91,6 +256,1147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133104</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1235565" cy="349070"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3181104" y="150775"/>
+              <a:ext cx="1235565" cy="349070"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>вещество</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h𝑑</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>7</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3181104" y="150775"/>
+              <a:ext cx="1235565" cy="349070"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>вещество</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=ℎ𝑑/(𝑘_2 𝑘_4 𝑘_7 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1003753</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2859950" cy="462114"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4528003" y="841852"/>
+              <a:ext cx="2859950" cy="462114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>э</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=20∗</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>6</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>7</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑄</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑑</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4528003" y="841852"/>
+              <a:ext cx="2859950" cy="462114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>э=20∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗∑24_𝑖^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2𝑖∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3𝑖∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>6𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7𝑖∗𝑄_𝑖/𝑑_𝑖 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -368,271 +1674,271 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,17 +1947,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <f>100+$B$1</f>
+        <v>108</v>
+      </c>
+      <c r="C4" s="4">
+        <f>50+$B$1</f>
+        <v>58</v>
+      </c>
+      <c r="D4" s="4">
+        <f>10+$B$1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7">
+        <f>5+$B$1</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <f>IF(B19&lt;$B$9,B$20,$B$21)</f>
+        <v>5.7982373094215625E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:D15" si="0">IF(C19&lt;$B$9,C$20,$B$21)</f>
+        <v>2.0207870511524069E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1197956678373644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <f>(B17*B18)/(B11*B13*B16)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C19" s="6">
+        <f>(C17*C18)/(C11*C13*C16)</f>
+        <v>7.619047619047619E-3</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19" si="1">(D17*D18)/(D11*D13*D16)</f>
+        <v>1.151923076923077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <f>B19^0.8</f>
+        <v>5.7982373094215625E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:D20" si="2">C19^0.8</f>
+        <v>2.0207870511524069E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1197956678373644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <f>(B9)^0.8</f>
+        <v>3.031433133020796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B$11*B$12*B$15*B$16*(B$4/B$18)</f>
+        <v>0.78276203677191092</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C$11*C$12*C$15*C$16*(C$4/C$18)</f>
+        <v>2.3074862140346544</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D$11*D$12*D$15*D$16*(D$4/D$18)</f>
+        <v>0.87489878555573708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>300</v>
+      </c>
+      <c r="H23" s="2">
+        <v>500</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20.56</v>
+      </c>
+      <c r="D24" s="2">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>52.67</v>
+      </c>
+      <c r="F24" s="2">
+        <v>81.91</v>
+      </c>
+      <c r="G24" s="2">
+        <v>166</v>
+      </c>
+      <c r="H24" s="2">
+        <v>231</v>
+      </c>
+      <c r="I24" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="6">
+        <f>20*B28*B14*(B22+C22+D22)</f>
+        <v>396.51470363623025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6">
+        <f>E24+((F24-E24)/(F23-E23)*10)</f>
+        <v>58.518000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B28*B9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6">
+        <f>8.27*10^(-3)*B26*180</f>
+        <v>87.109894800000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6">
+        <f>B31*B26^2*B9^(0.2)</f>
+        <v>365.99568596467822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B6/5</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B34:D41"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/БЖД/Практические/Практическая 4.xlsx
+++ b/БЖД/Практические/Практическая 4.xlsx
@@ -230,9 +230,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -240,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2016,53 +2016,53 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <f>5+$B$1</f>
         <v>13</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2124,13 +2124,13 @@
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2330,9 +2330,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2356,8 +2356,8 @@
         <v>37</v>
       </c>
       <c r="B30" s="6">
-        <f>8.27*10^(-3)*B26*180</f>
-        <v>87.109894800000006</v>
+        <f>8.27*10^(-3)*B26*B26*180</f>
+        <v>5097.4968239064001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2393,46 +2393,46 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
